--- a/data/almo-eda_data.xlsx
+++ b/data/almo-eda_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Research-projects/glutaminase-reaction/Manuscript/submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heidiklem/Desktop/Graduate School/Research-projects/glutaminase-reaction/Manuscript/submission/IGPS_QM_cluster_models/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C52F957A-F214-564E-9662-737E5B6A44E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86199EF-51BC-1246-A528-5AA37B3308FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{36D5CBED-096B-684A-8DCE-23DC238BD8DD}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>ES</t>
   </si>
   <si>
-    <t>TS1</t>
-  </si>
-  <si>
     <t>TS2</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>CPCM ε=4.24</t>
+  </si>
+  <si>
+    <t>TS4</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,58 +492,58 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -642,16 +642,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>-31.9</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -712,13 +712,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -747,13 +747,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -782,16 +782,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2">
         <v>-87.2</v>
@@ -817,13 +817,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -922,16 +922,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2">
         <v>-9.3000000000000007</v>
@@ -957,13 +957,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -1062,16 +1062,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2">
         <v>-76.400000000000006</v>
